--- a/Traveloka_DataAutomation_Portal_Molpaysgdfee/Data/Config.xlsx
+++ b/Traveloka_DataAutomation_Portal_Molpaysgdfee/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kalyana\Traveloka_DataAutomation_Portal_Molpaysgdfee\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\UiPath\Kalyana\Traveloka_DataAutomation_Portal_Molpaymyr\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{625877D2-6436-4790-9E74-CB671F04C312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3022F85-93A0-4FEC-B4C0-BD596EDFBB47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="69">
   <si>
     <t>Name</t>
   </si>
@@ -188,6 +188,27 @@
     <t>RPA_Moon_Cred_Gmail</t>
   </si>
   <si>
+    <t>RPA_Moon_SheetIdConfig</t>
+  </si>
+  <si>
+    <t>RPA_Moon_PathMasterFolder</t>
+  </si>
+  <si>
+    <t>RPA_Moon_PathMailTemplate</t>
+  </si>
+  <si>
+    <t>RPA_Moon_PathSaKey</t>
+  </si>
+  <si>
+    <t>RPA021_MOLPAY_Captcha_SiteKey</t>
+  </si>
+  <si>
+    <t>RPA021_MOLPAY_Captcha_RuleId</t>
+  </si>
+  <si>
+    <t>RPA021_MOLPAY_MerchantId</t>
+  </si>
+  <si>
     <t>Captcha_SiteKey</t>
   </si>
   <si>
@@ -197,55 +218,28 @@
     <t>MerchantId</t>
   </si>
   <si>
-    <t>[Dev] RPA_Moon_UploadBucket</t>
-  </si>
-  <si>
     <t>OrchestratorQueueName</t>
   </si>
   <si>
+    <t>RPA_Moon_PathDownloadChrome</t>
+  </si>
+  <si>
     <t>PathDownloadChrome</t>
   </si>
   <si>
+    <t>RPA_Moon_DialogDownloadChrome</t>
+  </si>
+  <si>
     <t>DialogDownloadChrome</t>
   </si>
   <si>
-    <t>[Dev] RPA_Moon_SheetIdConfig</t>
-  </si>
-  <si>
-    <t>[Dev] RPA_Moon_PathMasterFolder</t>
-  </si>
-  <si>
-    <t>[Dev] RPA_Moon_PathMailTemplate</t>
-  </si>
-  <si>
-    <t>[Dev] RPA_Moon_PathSaKey</t>
-  </si>
-  <si>
-    <t>[Dev] RPA_Moon_PathDownloadChrome</t>
-  </si>
-  <si>
-    <t>[Dev] RPA_Moon_DialogDownloadChrome</t>
+    <t>RPA_Moon_UploadBucket</t>
   </si>
   <si>
     <t>SenderName</t>
   </si>
   <si>
     <t>RPA_Moon_SenderName</t>
-  </si>
-  <si>
-    <t>RPA044_MOLPAY_SG_MerchantID</t>
-  </si>
-  <si>
-    <t>RPA_Moon_GCaptcha_RuleId</t>
-  </si>
-  <si>
-    <t>RPA044_MOLPAY_Captcha_SiteKey</t>
-  </si>
-  <si>
-    <t>TemplateMolpayFee</t>
-  </si>
-  <si>
-    <t>Data\Template\Molpay Fee.xlsx</t>
   </si>
 </sst>
 </file>
@@ -624,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z996"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="14.95" customHeight="1"/>
@@ -672,10 +666,10 @@
     </row>
     <row r="2" spans="1:26" ht="14.3" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
@@ -719,14 +713,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="14.3" customHeight="1">
-      <c r="A8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B8" t="s">
-        <v>70</v>
-      </c>
-    </row>
+    <row r="8" spans="1:26" ht="14.3" customHeight="1"/>
     <row r="9" spans="1:26" ht="14.3" customHeight="1"/>
     <row r="10" spans="1:26" ht="14.3" customHeight="1"/>
     <row r="11" spans="1:26" ht="14.3" customHeight="1"/>
@@ -2889,8 +2876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="14.95" customHeight="1"/>
@@ -2942,7 +2929,7 @@
         <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.3" customHeight="1">
@@ -2950,7 +2937,7 @@
         <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.3" customHeight="1">
@@ -2958,7 +2945,7 @@
         <v>46</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.3" customHeight="1">
@@ -2966,36 +2953,36 @@
         <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.3" customHeight="1">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.3" customHeight="1">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.3" customHeight="1">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.3" customHeight="1">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B9" t="s">
         <v>62</v>
@@ -3003,18 +2990,18 @@
     </row>
     <row r="10" spans="1:26" ht="14.3" customHeight="1">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.3" customHeight="1">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.3" customHeight="1"/>

--- a/Traveloka_DataAutomation_Portal_Molpaysgdfee/Data/Config.xlsx
+++ b/Traveloka_DataAutomation_Portal_Molpaysgdfee/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\UiPath\Kalyana\Traveloka_DataAutomation_Portal_Molpaymyr\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kalyana\dataautomation_personal\Traveloka_DataAutomation_Portal_Molpaysgdfee\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3022F85-93A0-4FEC-B4C0-BD596EDFBB47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42154D9-E1A9-4DD4-92B8-953F3A1038B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14388" yWindow="0" windowWidth="14388" windowHeight="14520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="71">
   <si>
     <t>Name</t>
   </si>
@@ -188,6 +188,36 @@
     <t>RPA_Moon_Cred_Gmail</t>
   </si>
   <si>
+    <t>Captcha_SiteKey</t>
+  </si>
+  <si>
+    <t>Captcha_RuleId</t>
+  </si>
+  <si>
+    <t>MerchantId</t>
+  </si>
+  <si>
+    <t>OrchestratorQueueName</t>
+  </si>
+  <si>
+    <t>PathDownloadChrome</t>
+  </si>
+  <si>
+    <t>DialogDownloadChrome</t>
+  </si>
+  <si>
+    <t>SenderName</t>
+  </si>
+  <si>
+    <t>RPA_Moon_SenderName</t>
+  </si>
+  <si>
+    <t>RPA044_MOLPAY_SG_MerchantID</t>
+  </si>
+  <si>
+    <t>TemplateMolpayFee</t>
+  </si>
+  <si>
     <t>RPA_Moon_SheetIdConfig</t>
   </si>
   <si>
@@ -200,46 +230,22 @@
     <t>RPA_Moon_PathSaKey</t>
   </si>
   <si>
-    <t>RPA021_MOLPAY_Captcha_SiteKey</t>
-  </si>
-  <si>
-    <t>RPA021_MOLPAY_Captcha_RuleId</t>
-  </si>
-  <si>
-    <t>RPA021_MOLPAY_MerchantId</t>
-  </si>
-  <si>
-    <t>Captcha_SiteKey</t>
-  </si>
-  <si>
-    <t>Captcha_RuleId</t>
-  </si>
-  <si>
-    <t>MerchantId</t>
-  </si>
-  <si>
-    <t>OrchestratorQueueName</t>
-  </si>
-  <si>
     <t>RPA_Moon_PathDownloadChrome</t>
   </si>
   <si>
-    <t>PathDownloadChrome</t>
-  </si>
-  <si>
     <t>RPA_Moon_DialogDownloadChrome</t>
   </si>
   <si>
-    <t>DialogDownloadChrome</t>
+    <t>RPA044_MOLPAY_SG_Captcha_SiteKey</t>
+  </si>
+  <si>
+    <t>RPA044_MOLPAY_SG_Captcha_RuleId</t>
+  </si>
+  <si>
+    <t>Data\Template\Molpay Fee.xlsx</t>
   </si>
   <si>
     <t>RPA_Moon_UploadBucket</t>
-  </si>
-  <si>
-    <t>SenderName</t>
-  </si>
-  <si>
-    <t>RPA_Moon_SenderName</t>
   </si>
 </sst>
 </file>
@@ -666,10 +672,10 @@
     </row>
     <row r="2" spans="1:26" ht="14.3" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
@@ -713,7 +719,14 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="14.3" customHeight="1"/>
+    <row r="8" spans="1:26" ht="14.3" customHeight="1">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" t="s">
+        <v>69</v>
+      </c>
+    </row>
     <row r="9" spans="1:26" ht="14.3" customHeight="1"/>
     <row r="10" spans="1:26" ht="14.3" customHeight="1"/>
     <row r="11" spans="1:26" ht="14.3" customHeight="1"/>
@@ -2877,7 +2890,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:B11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="14.95" customHeight="1"/>
@@ -2929,7 +2942,7 @@
         <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.3" customHeight="1">
@@ -2937,7 +2950,7 @@
         <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.3" customHeight="1">
@@ -2945,7 +2958,7 @@
         <v>46</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.3" customHeight="1">
@@ -2953,55 +2966,55 @@
         <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.3" customHeight="1">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.3" customHeight="1">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.3" customHeight="1">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.3" customHeight="1">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.3" customHeight="1">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.3" customHeight="1">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.3" customHeight="1"/>

--- a/Traveloka_DataAutomation_Portal_Molpaysgdfee/Data/Config.xlsx
+++ b/Traveloka_DataAutomation_Portal_Molpaysgdfee/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kalyana\dataautomation_personal\Traveloka_DataAutomation_Portal_Molpaysgdfee\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42154D9-E1A9-4DD4-92B8-953F3A1038B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1898ED2D-0D1E-4E00-9712-70D8E15E9E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14388" yWindow="0" windowWidth="14388" windowHeight="14520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3552" yWindow="3552" windowWidth="21588" windowHeight="10620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -624,7 +624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z996"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -2889,7 +2889,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>

--- a/Traveloka_DataAutomation_Portal_Molpaysgdfee/Data/Config.xlsx
+++ b/Traveloka_DataAutomation_Portal_Molpaysgdfee/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kalyana\dataautomation_personal\Traveloka_DataAutomation_Portal_Molpaysgdfee\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1898ED2D-0D1E-4E00-9712-70D8E15E9E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE47F49-B9DF-4E09-8583-D97D67D2E318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3552" yWindow="3552" windowWidth="21588" windowHeight="10620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="28992" windowHeight="14736" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -218,6 +218,18 @@
     <t>TemplateMolpayFee</t>
   </si>
   <si>
+    <t>RPA044_MOLPAY_SG_Captcha_SiteKey</t>
+  </si>
+  <si>
+    <t>Data\Template\Molpay Fee.xlsx</t>
+  </si>
+  <si>
+    <t>RPA_Moon_CCaptcha_RuleId</t>
+  </si>
+  <si>
+    <t>RPA_Moon_UploadBucket</t>
+  </si>
+  <si>
     <t>RPA_Moon_SheetIdConfig</t>
   </si>
   <si>
@@ -234,18 +246,6 @@
   </si>
   <si>
     <t>RPA_Moon_DialogDownloadChrome</t>
-  </si>
-  <si>
-    <t>RPA044_MOLPAY_SG_Captcha_SiteKey</t>
-  </si>
-  <si>
-    <t>RPA044_MOLPAY_SG_Captcha_RuleId</t>
-  </si>
-  <si>
-    <t>Data\Template\Molpay Fee.xlsx</t>
-  </si>
-  <si>
-    <t>RPA_Moon_UploadBucket</t>
   </si>
 </sst>
 </file>
@@ -326,9 +326,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -366,7 +366,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -472,7 +472,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -614,7 +614,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -624,8 +624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z996"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="14.95" customHeight="1"/>
@@ -675,7 +675,7 @@
         <v>54</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
@@ -724,7 +724,7 @@
         <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.3" customHeight="1"/>
@@ -2889,8 +2889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="14.95" customHeight="1"/>
@@ -2942,7 +2942,7 @@
         <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.3" customHeight="1">
@@ -2950,7 +2950,7 @@
         <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.3" customHeight="1">
@@ -2958,7 +2958,7 @@
         <v>46</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.3" customHeight="1">
@@ -2966,7 +2966,7 @@
         <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.3" customHeight="1">
@@ -2974,7 +2974,7 @@
         <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.3" customHeight="1">
@@ -2982,7 +2982,7 @@
         <v>52</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.3" customHeight="1">
@@ -2998,7 +2998,7 @@
         <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.3" customHeight="1">
@@ -3006,7 +3006,7 @@
         <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.3" customHeight="1">

--- a/Traveloka_DataAutomation_Portal_Molpaysgdfee/Data/Config.xlsx
+++ b/Traveloka_DataAutomation_Portal_Molpaysgdfee/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kalyana\dataautomation_personal\Traveloka_DataAutomation_Portal_Molpaysgdfee\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57111338-3DF9-4917-9888-D98A16E9A8EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF0B3F9-6723-4738-A071-F2686C345748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="28992" windowHeight="14736" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="28992" windowHeight="14736" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -197,6 +197,9 @@
     <t>MerchantId</t>
   </si>
   <si>
+    <t>[Dev] RPA_Moon_UploadBucket</t>
+  </si>
+  <si>
     <t>OrchestratorQueueName</t>
   </si>
   <si>
@@ -206,6 +209,24 @@
     <t>DialogDownloadChrome</t>
   </si>
   <si>
+    <t>[Dev] RPA_Moon_SheetIdConfig</t>
+  </si>
+  <si>
+    <t>[Dev] RPA_Moon_PathMasterFolder</t>
+  </si>
+  <si>
+    <t>[Dev] RPA_Moon_PathMailTemplate</t>
+  </si>
+  <si>
+    <t>[Dev] RPA_Moon_PathSaKey</t>
+  </si>
+  <si>
+    <t>[Dev] RPA_Moon_PathDownloadChrome</t>
+  </si>
+  <si>
+    <t>[Dev] RPA_Moon_DialogDownloadChrome</t>
+  </si>
+  <si>
     <t>SenderName</t>
   </si>
   <si>
@@ -236,28 +257,7 @@
     <t>PathCaptchaHandler</t>
   </si>
   <si>
-    <t>RPA_Moon_UploadBucket</t>
-  </si>
-  <si>
-    <t>RPA_Moon_SheetIdConfig</t>
-  </si>
-  <si>
-    <t>RPA_Moon_PathMasterFolder</t>
-  </si>
-  <si>
-    <t>RPA_Moon_PathMailTemplate</t>
-  </si>
-  <si>
-    <t>RPA_Moon_PathSaKey</t>
-  </si>
-  <si>
-    <t>RPA_Moon_PathDownloadChrome</t>
-  </si>
-  <si>
-    <t>RPA_Moon_DialogDownloadChrome</t>
-  </si>
-  <si>
-    <t>RPA_Moon_PathCaptchaHandler</t>
+    <t>[Dev] RPA_Moon_PathCaptchaHandler</t>
   </si>
 </sst>
 </file>
@@ -636,7 +636,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z996"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9:Z9"/>
     </sheetView>
   </sheetViews>
@@ -684,10 +684,10 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
@@ -733,18 +733,18 @@
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
@@ -2908,8 +2908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:Z12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1"/>
@@ -2961,7 +2961,7 @@
         <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
@@ -2969,7 +2969,7 @@
         <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
@@ -2977,7 +2977,7 @@
         <v>46</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
@@ -2985,7 +2985,7 @@
         <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
@@ -2993,7 +2993,7 @@
         <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
@@ -3001,7 +3001,7 @@
         <v>52</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
@@ -3009,36 +3009,36 @@
         <v>53</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B12" t="s">
         <v>74</v>
